--- a/Proveedores.xlsx
+++ b/Proveedores.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFDC3A44-C8F0-402C-B9C3-B88D6B54DCCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>Compañía</t>
   </si>
@@ -139,11 +140,14 @@
   <si>
     <t>Sí</t>
   </si>
+  <si>
+    <t>30€ (&lt; de 750€)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -561,24 +565,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D2:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="28.5546875" style="15" customWidth="1"/>
-    <col min="5" max="5" width="24.109375" style="12" customWidth="1"/>
-    <col min="6" max="6" width="34.44140625" customWidth="1"/>
-    <col min="7" max="7" width="16.5546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.109375" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" style="15" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" style="12" customWidth="1"/>
+    <col min="6" max="6" width="34.42578125" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="4:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D3" s="16" t="s">
         <v>0</v>
       </c>
@@ -592,7 +596,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="4:7" ht="121.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="4:7" ht="121.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D4" s="6" t="s">
         <v>5</v>
       </c>
@@ -606,7 +610,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="4:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="6" t="s">
         <v>7</v>
       </c>
@@ -618,7 +622,7 @@
       </c>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="4:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="4:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D6" s="6" t="s">
         <v>9</v>
       </c>
@@ -630,7 +634,7 @@
       </c>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="4:7" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="4:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D7" s="6" t="s">
         <v>11</v>
       </c>
@@ -644,7 +648,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="4:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D8" s="6" t="s">
         <v>13</v>
       </c>
@@ -656,7 +660,7 @@
       </c>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="4:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="4:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D9" s="6" t="s">
         <v>15</v>
       </c>
@@ -666,7 +670,7 @@
       </c>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="4:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="4:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D10" s="6" t="s">
         <v>18</v>
       </c>
@@ -674,9 +678,11 @@
       <c r="F10" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="4:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G10" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="4:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D11" s="6" t="s">
         <v>19</v>
       </c>
@@ -688,7 +694,7 @@
       </c>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="4:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="4:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D12" s="6" t="s">
         <v>22</v>
       </c>
@@ -698,7 +704,7 @@
       </c>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="4:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="4:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D13" s="6" t="s">
         <v>24</v>
       </c>
@@ -712,7 +718,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="4:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D14" s="6" t="s">
         <v>25</v>
       </c>
@@ -722,7 +728,7 @@
       </c>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="4:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D15" s="6" t="s">
         <v>28</v>
       </c>
